--- a/data/Subset 1/MOLLY MCNINch pt 4.xlsx
+++ b/data/Subset 1/MOLLY MCNINch pt 4.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>MOLLY MCNINCH</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
